--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFDB274-CA68-40A7-B666-2B2FBB20F7CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B6EF45-3F13-4BC6-9015-02D87BFDB2BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{DE9B2C69-80EA-4400-AF84-1E72C6D3434C}"/>
   </bookViews>
@@ -627,8 +627,8 @@
   </sheetPr>
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B6EF45-3F13-4BC6-9015-02D87BFDB2BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5254E7B-E65F-4421-88EC-3EB862E1D89F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{DE9B2C69-80EA-4400-AF84-1E72C6D3434C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>key</t>
   </si>
@@ -219,6 +219,26 @@
   </si>
   <si>
     <t>Enum&lt;MonsterType&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldSpawn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LimitSpawnCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>필드 스폰 여부</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스폰수 제한</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +302,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -305,6 +325,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -625,17 +651,17 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
@@ -651,9 +677,11 @@
     <col min="16" max="16" width="23.625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.25" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,8 +736,14 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -764,8 +798,14 @@
       <c r="R2" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -820,8 +860,14 @@
       <c r="R3" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -879,8 +925,14 @@
       <c r="R4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -938,8 +990,14 @@
       <c r="R5">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1003</v>
       </c>
@@ -997,8 +1055,14 @@
       <c r="R6">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -1056,8 +1120,14 @@
       <c r="R7">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2001</v>
       </c>
@@ -1115,8 +1185,14 @@
       <c r="R8">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2002</v>
       </c>
@@ -1174,8 +1250,14 @@
       <c r="R9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2003</v>
       </c>
@@ -1233,8 +1315,14 @@
       <c r="R10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3001</v>
       </c>
@@ -1291,8 +1379,14 @@
       <c r="R11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3002</v>
       </c>
@@ -1349,8 +1443,14 @@
       <c r="R12">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1367,7 +1467,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1384,7 +1484,7 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5254E7B-E65F-4421-88EC-3EB862E1D89F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62241C57-B174-4F76-B3F1-BF3549744E23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{DE9B2C69-80EA-4400-AF84-1E72C6D3434C}"/>
   </bookViews>
@@ -654,7 +654,7 @@
   <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -917,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="P4">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="5">
         <v>200</v>
@@ -982,7 +982,7 @@
         <v>5</v>
       </c>
       <c r="P5">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="5">
         <v>200</v>
@@ -1047,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="P6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="Q6" s="5">
         <v>200</v>
@@ -1112,7 +1112,7 @@
         <v>5</v>
       </c>
       <c r="P7">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="5">
         <v>200</v>
@@ -1177,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="P8">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="5">
         <v>200</v>
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="P9">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="5">
         <v>200</v>
@@ -1307,7 +1307,7 @@
         <v>7</v>
       </c>
       <c r="P10">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="5">
         <v>200</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62241C57-B174-4F76-B3F1-BF3549744E23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08C5FFC-1C66-44EE-9122-F4A46CB0F230}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{DE9B2C69-80EA-4400-AF84-1E72C6D3434C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>key</t>
   </si>
@@ -239,6 +239,10 @@
   </si>
   <si>
     <t>스폰수 제한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedMoveWave</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -651,10 +655,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -672,16 +676,17 @@
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,28 +727,31 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -792,20 +800,23 @@
       <c r="P2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -846,28 +857,31 @@
         <v>33</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="U3" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -908,31 +922,34 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>50</v>
+        <v>1.7</v>
       </c>
       <c r="N4">
+        <v>2.5</v>
+      </c>
+      <c r="O4">
         <v>0.7</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>5</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>100</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="R4" s="5">
         <v>200</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>30</v>
       </c>
-      <c r="S4" t="b">
+      <c r="T4" t="b">
         <v>1</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>9999</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -973,31 +990,34 @@
         <v>2</v>
       </c>
       <c r="M5">
-        <v>60</v>
+        <v>1.9</v>
       </c>
       <c r="N5">
+        <v>2.8</v>
+      </c>
+      <c r="O5">
         <v>0.7</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>5</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>100</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="R5" s="5">
         <v>200</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>35</v>
       </c>
-      <c r="S5" t="b">
+      <c r="T5" t="b">
         <v>1</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>9999</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1003</v>
       </c>
@@ -1038,31 +1058,34 @@
         <v>2</v>
       </c>
       <c r="M6">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
         <v>0.5</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>5</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>100</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="R6" s="5">
         <v>200</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>40</v>
       </c>
-      <c r="S6" t="b">
+      <c r="T6" t="b">
         <v>1</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>9999</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -1103,31 +1126,34 @@
         <v>2</v>
       </c>
       <c r="M7">
-        <v>65</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N7">
+        <v>3.5</v>
+      </c>
+      <c r="O7">
         <v>0.65</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>5</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>100</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="R7" s="5">
         <v>200</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>60</v>
       </c>
-      <c r="S7" t="b">
+      <c r="T7" t="b">
         <v>1</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>9999</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2001</v>
       </c>
@@ -1168,31 +1194,34 @@
         <v>4</v>
       </c>
       <c r="M8">
-        <v>65</v>
+        <v>1.8</v>
       </c>
       <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
         <v>0.7</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>4</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>13</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="R8" s="5">
         <v>200</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>60</v>
       </c>
-      <c r="S8" t="b">
+      <c r="T8" t="b">
         <v>1</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>9999</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2002</v>
       </c>
@@ -1233,31 +1262,34 @@
         <v>4</v>
       </c>
       <c r="M9">
-        <v>80</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N9">
+        <v>3.5</v>
+      </c>
+      <c r="O9">
         <v>0.85</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>7</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>100</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="R9" s="5">
         <v>200</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>100</v>
       </c>
-      <c r="S9" t="b">
+      <c r="T9" t="b">
         <v>0</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>9999</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2003</v>
       </c>
@@ -1298,31 +1330,34 @@
         <v>4</v>
       </c>
       <c r="M10">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="N10">
+        <v>3.2</v>
+      </c>
+      <c r="O10">
         <v>0.45</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>7</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>100</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="R10" s="5">
         <v>200</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>100</v>
       </c>
-      <c r="S10" t="b">
+      <c r="T10" t="b">
         <v>0</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3001</v>
       </c>
@@ -1362,31 +1397,34 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>75</v>
+        <v>2.8</v>
       </c>
       <c r="N11">
+        <v>2.8</v>
+      </c>
+      <c r="O11">
         <v>0.8</v>
-      </c>
-      <c r="O11">
-        <v>15</v>
       </c>
       <c r="P11">
         <v>15</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11">
+        <v>15</v>
+      </c>
+      <c r="R11" s="5">
         <v>200</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>0</v>
       </c>
-      <c r="S11" t="b">
+      <c r="T11" t="b">
         <v>1</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3002</v>
       </c>
@@ -1426,31 +1464,34 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>60</v>
+        <v>2.5</v>
       </c>
       <c r="N12">
+        <v>2.5</v>
+      </c>
+      <c r="O12">
         <v>0.6</v>
-      </c>
-      <c r="O12">
-        <v>15</v>
       </c>
       <c r="P12">
         <v>15</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12">
+        <v>15</v>
+      </c>
+      <c r="R12" s="5">
         <v>200</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>0</v>
       </c>
-      <c r="S12" t="b">
+      <c r="T12" t="b">
         <v>1</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1466,8 +1507,9 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1483,8 +1525,9 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1500,8 +1543,9 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -1517,8 +1561,9 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1534,8 +1579,9 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1551,8 +1597,9 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1568,8 +1615,9 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1585,8 +1633,9 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1602,8 +1651,9 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1619,8 +1669,9 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1636,8 +1687,9 @@
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1653,8 +1705,9 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1670,8 +1723,9 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1687,8 +1741,9 @@
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1704,8 +1759,9 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1721,8 +1777,9 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1738,8 +1795,9 @@
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1755,8 +1813,9 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P31" s="6"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1772,8 +1831,9 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P32" s="6"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1789,8 +1849,9 @@
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P33" s="6"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1806,8 +1867,9 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P34" s="6"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1823,9 +1885,10 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
-    </row>
-    <row r="36" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P35" s="6"/>
+    </row>
+    <row r="36" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1841,8 +1904,9 @@
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P37" s="6"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1858,8 +1922,9 @@
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1875,8 +1940,9 @@
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1892,8 +1958,9 @@
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P40" s="6"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1909,8 +1976,9 @@
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P41" s="6"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1926,6 +1994,7 @@
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08C5FFC-1C66-44EE-9122-F4A46CB0F230}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A40609-E6D7-4155-BC89-1CC4BA6DE17D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{DE9B2C69-80EA-4400-AF84-1E72C6D3434C}"/>
   </bookViews>
@@ -658,7 +658,7 @@
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1409,7 +1409,7 @@
         <v>15</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="R11" s="5">
         <v>200</v>
@@ -1476,7 +1476,7 @@
         <v>15</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="R12" s="5">
         <v>200</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A40609-E6D7-4155-BC89-1CC4BA6DE17D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D531DC16-F2DD-480E-9704-4E3CDA0B7BBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{DE9B2C69-80EA-4400-AF84-1E72C6D3434C}"/>
   </bookViews>
@@ -658,7 +658,7 @@
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1406,7 +1406,7 @@
         <v>0.8</v>
       </c>
       <c r="P11">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -1473,7 +1473,7 @@
         <v>0.6</v>
       </c>
       <c r="P12">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q12">
         <v>7</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D531DC16-F2DD-480E-9704-4E3CDA0B7BBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457A29D4-A474-4AA5-A41C-8CDF7C26AB55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{DE9B2C69-80EA-4400-AF84-1E72C6D3434C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
   <si>
     <t>key</t>
   </si>
@@ -243,6 +243,34 @@
   </si>
   <si>
     <t>SpeedMoveWave</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPCoef</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쳬력 계수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkCoef</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefCoef</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 계수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 계수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -655,10 +683,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -669,24 +697,27 @@
     <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,52 +737,61 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -771,7 +811,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>18</v>
@@ -783,19 +823,19 @@
         <v>18</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>20</v>
@@ -803,20 +843,29 @@
       <c r="Q2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -836,52 +885,61 @@
         <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="W3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="X3" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -902,54 +960,57 @@
         <v>25</v>
       </c>
       <c r="G4">
+        <v>0.4</v>
+      </c>
+      <c r="H4">
         <v>30</v>
       </c>
-      <c r="H4">
-        <f>G4+I4*4</f>
+      <c r="I4">
+        <f>H4+J4*4</f>
         <v>42</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>20</v>
       </c>
-      <c r="K4">
-        <f>J4+L4*4</f>
+      <c r="M4">
+        <f>L4+N4*4</f>
         <v>28</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>2</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>1.7</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>2.5</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>0.7</v>
       </c>
-      <c r="P4">
+      <c r="S4">
         <v>5</v>
       </c>
-      <c r="Q4">
+      <c r="T4">
         <v>100</v>
       </c>
-      <c r="R4" s="5">
+      <c r="U4" s="5">
         <v>200</v>
       </c>
-      <c r="S4">
+      <c r="V4">
         <v>30</v>
       </c>
-      <c r="T4" t="b">
+      <c r="W4" t="b">
         <v>1</v>
       </c>
-      <c r="U4">
+      <c r="X4">
         <v>9999</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -970,54 +1031,57 @@
         <v>30</v>
       </c>
       <c r="G5">
+        <v>0.4</v>
+      </c>
+      <c r="H5">
         <v>35</v>
       </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H12" si="1">G5+I5*4</f>
+      <c r="I5">
+        <f t="shared" ref="I5:I12" si="1">H5+J5*4</f>
         <v>47</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>3</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>25</v>
       </c>
-      <c r="K5">
-        <f t="shared" ref="K5:K12" si="2">J5+L5*4</f>
+      <c r="M5">
+        <f t="shared" ref="M5:M12" si="2">L5+N5*4</f>
         <v>33</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>2</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <v>1.9</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>2.8</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>0.7</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <v>5</v>
       </c>
-      <c r="Q5">
+      <c r="T5">
         <v>100</v>
       </c>
-      <c r="R5" s="5">
+      <c r="U5" s="5">
         <v>200</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>35</v>
       </c>
-      <c r="T5" t="b">
+      <c r="W5" t="b">
         <v>1</v>
       </c>
-      <c r="U5">
+      <c r="X5">
         <v>9999</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1003</v>
       </c>
@@ -1038,54 +1102,57 @@
         <v>40</v>
       </c>
       <c r="G6">
+        <v>0.4</v>
+      </c>
+      <c r="H6">
         <v>45</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>45</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>2</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <v>2</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <v>3</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>0.5</v>
       </c>
-      <c r="P6">
+      <c r="S6">
         <v>5</v>
       </c>
-      <c r="Q6">
+      <c r="T6">
         <v>100</v>
       </c>
-      <c r="R6" s="5">
+      <c r="U6" s="5">
         <v>200</v>
       </c>
-      <c r="S6">
+      <c r="V6">
         <v>40</v>
       </c>
-      <c r="T6" t="b">
+      <c r="W6" t="b">
         <v>1</v>
       </c>
-      <c r="U6">
+      <c r="X6">
         <v>9999</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -1106,54 +1173,57 @@
         <v>45</v>
       </c>
       <c r="G7">
+        <v>0.4</v>
+      </c>
+      <c r="H7">
         <v>40</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>45</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>2</v>
       </c>
-      <c r="M7">
+      <c r="P7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <v>3.5</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>0.65</v>
       </c>
-      <c r="P7">
+      <c r="S7">
         <v>5</v>
       </c>
-      <c r="Q7">
+      <c r="T7">
         <v>100</v>
       </c>
-      <c r="R7" s="5">
+      <c r="U7" s="5">
         <v>200</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>60</v>
       </c>
-      <c r="T7" t="b">
+      <c r="W7" t="b">
         <v>1</v>
       </c>
-      <c r="U7">
+      <c r="X7">
         <v>9999</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2001</v>
       </c>
@@ -1174,54 +1244,57 @@
         <v>50</v>
       </c>
       <c r="G8">
+        <v>0.4</v>
+      </c>
+      <c r="H8">
         <v>55</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>7</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>40</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>4</v>
       </c>
-      <c r="M8">
+      <c r="P8">
         <v>1.8</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
         <v>2</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>0.7</v>
       </c>
-      <c r="P8">
+      <c r="S8">
         <v>4</v>
       </c>
-      <c r="Q8">
+      <c r="T8">
         <v>13</v>
       </c>
-      <c r="R8" s="5">
+      <c r="U8" s="5">
         <v>200</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>60</v>
       </c>
-      <c r="T8" t="b">
+      <c r="W8" t="b">
         <v>1</v>
       </c>
-      <c r="U8">
+      <c r="X8">
         <v>9999</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2002</v>
       </c>
@@ -1242,54 +1315,57 @@
         <v>60</v>
       </c>
       <c r="G9">
+        <v>0.4</v>
+      </c>
+      <c r="H9">
         <v>60</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>7</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>45</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>4</v>
       </c>
-      <c r="M9">
+      <c r="P9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <v>3.5</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>0.85</v>
       </c>
-      <c r="P9">
+      <c r="S9">
         <v>7</v>
       </c>
-      <c r="Q9">
+      <c r="T9">
         <v>100</v>
       </c>
-      <c r="R9" s="5">
+      <c r="U9" s="5">
         <v>200</v>
       </c>
-      <c r="S9">
+      <c r="V9">
         <v>100</v>
       </c>
-      <c r="T9" t="b">
+      <c r="W9" t="b">
         <v>0</v>
       </c>
-      <c r="U9">
+      <c r="X9">
         <v>9999</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2003</v>
       </c>
@@ -1310,54 +1386,57 @@
         <v>70</v>
       </c>
       <c r="G10">
+        <v>0.4</v>
+      </c>
+      <c r="H10">
         <v>55</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>7</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>45</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>4</v>
       </c>
-      <c r="M10">
+      <c r="P10">
         <v>2</v>
       </c>
-      <c r="N10">
+      <c r="Q10">
         <v>3.2</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>0.45</v>
       </c>
-      <c r="P10">
+      <c r="S10">
         <v>7</v>
       </c>
-      <c r="Q10">
+      <c r="T10">
         <v>100</v>
       </c>
-      <c r="R10" s="5">
+      <c r="U10" s="5">
         <v>200</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>100</v>
       </c>
-      <c r="T10" t="b">
+      <c r="W10" t="b">
         <v>0</v>
       </c>
-      <c r="U10">
+      <c r="X10">
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3001</v>
       </c>
@@ -1377,54 +1456,57 @@
         <v>0</v>
       </c>
       <c r="G11">
+        <v>0.4</v>
+      </c>
+      <c r="H11">
         <v>90</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>50</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>0</v>
       </c>
-      <c r="M11">
+      <c r="P11">
         <v>2.8</v>
       </c>
-      <c r="N11">
+      <c r="Q11">
         <v>2.8</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>0.8</v>
       </c>
-      <c r="P11">
+      <c r="S11">
         <v>7</v>
       </c>
-      <c r="Q11">
+      <c r="T11">
         <v>7</v>
       </c>
-      <c r="R11" s="5">
+      <c r="U11" s="5">
         <v>200</v>
       </c>
-      <c r="S11">
+      <c r="V11">
         <v>0</v>
       </c>
-      <c r="T11" t="b">
+      <c r="W11" t="b">
         <v>1</v>
       </c>
-      <c r="U11">
+      <c r="X11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3002</v>
       </c>
@@ -1444,54 +1526,57 @@
         <v>0</v>
       </c>
       <c r="G12">
+        <v>0.4</v>
+      </c>
+      <c r="H12">
         <v>80</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>60</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>0</v>
       </c>
-      <c r="M12">
+      <c r="P12">
         <v>2.5</v>
       </c>
-      <c r="N12">
+      <c r="Q12">
         <v>2.5</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <v>0.6</v>
       </c>
-      <c r="P12">
+      <c r="S12">
         <v>7</v>
       </c>
-      <c r="Q12">
+      <c r="T12">
         <v>7</v>
       </c>
-      <c r="R12" s="5">
+      <c r="U12" s="5">
         <v>200</v>
       </c>
-      <c r="S12">
+      <c r="V12">
         <v>0</v>
       </c>
-      <c r="T12" t="b">
+      <c r="W12" t="b">
         <v>1</v>
       </c>
-      <c r="U12">
+      <c r="X12">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1508,8 +1593,11 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1526,8 +1614,11 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1544,8 +1635,11 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -1562,8 +1656,11 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1580,8 +1677,11 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1598,8 +1698,11 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1616,8 +1719,11 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1634,8 +1740,11 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1652,8 +1761,11 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1670,8 +1782,11 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1688,8 +1803,11 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1706,8 +1824,11 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1724,8 +1845,11 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1742,8 +1866,11 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1760,8 +1887,11 @@
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1778,8 +1908,11 @@
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1796,8 +1929,11 @@
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1814,8 +1950,11 @@
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1832,8 +1971,11 @@
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1850,8 +1992,11 @@
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1868,8 +2013,11 @@
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1886,9 +2034,12 @@
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
-    </row>
-    <row r="36" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+    </row>
+    <row r="36" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1905,8 +2056,11 @@
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1923,8 +2077,11 @@
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1941,8 +2098,11 @@
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1959,8 +2119,11 @@
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1977,8 +2140,11 @@
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1995,6 +2161,9 @@
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457A29D4-A474-4AA5-A41C-8CDF7C26AB55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0695FD-F19E-49ED-B367-B958B8E9EA02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{DE9B2C69-80EA-4400-AF84-1E72C6D3434C}"/>
   </bookViews>
@@ -334,7 +334,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -363,6 +363,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -686,7 +689,7 @@
   <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B4" sqref="B4:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -943,52 +946,58 @@
       <c r="A4">
         <v>1001</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D4">
-        <v>150</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="10">
+        <v>300</v>
+      </c>
+      <c r="E4" s="10">
         <f>D4+F4*4</f>
-        <v>250</v>
-      </c>
-      <c r="F4">
+        <v>400</v>
+      </c>
+      <c r="F4" s="10">
         <v>25</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="10">
         <v>0.4</v>
       </c>
-      <c r="H4">
-        <v>30</v>
-      </c>
-      <c r="I4">
+      <c r="H4" s="10">
+        <v>50</v>
+      </c>
+      <c r="I4" s="10">
         <f>H4+J4*4</f>
-        <v>42</v>
-      </c>
-      <c r="J4">
+        <v>62</v>
+      </c>
+      <c r="J4" s="10">
         <v>3</v>
       </c>
-      <c r="L4">
+      <c r="K4" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L4" s="10">
         <v>20</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="10">
         <f>L4+N4*4</f>
         <v>28</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="10">
         <v>2</v>
       </c>
-      <c r="P4">
-        <v>1.7</v>
-      </c>
-      <c r="Q4">
-        <v>2.5</v>
-      </c>
-      <c r="R4">
+      <c r="O4" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>5</v>
+      </c>
+      <c r="R4" s="10">
         <v>0.7</v>
       </c>
       <c r="S4">
@@ -1014,52 +1023,58 @@
       <c r="A5">
         <v>1002</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D5">
-        <v>180</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="10">
+        <v>400</v>
+      </c>
+      <c r="E5" s="10">
         <f t="shared" ref="E5:E10" si="0">D5+F5*4</f>
-        <v>300</v>
-      </c>
-      <c r="F5">
+        <v>520</v>
+      </c>
+      <c r="F5" s="10">
         <v>30</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="10">
         <v>0.4</v>
       </c>
-      <c r="H5">
-        <v>35</v>
-      </c>
-      <c r="I5">
+      <c r="H5" s="10">
+        <v>55</v>
+      </c>
+      <c r="I5" s="10">
         <f t="shared" ref="I5:I12" si="1">H5+J5*4</f>
-        <v>47</v>
-      </c>
-      <c r="J5">
+        <v>67</v>
+      </c>
+      <c r="J5" s="10">
         <v>3</v>
       </c>
-      <c r="L5">
+      <c r="K5" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L5" s="10">
         <v>25</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="10">
         <f t="shared" ref="M5:M12" si="2">L5+N5*4</f>
         <v>33</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="10">
         <v>2</v>
       </c>
-      <c r="P5">
-        <v>1.9</v>
-      </c>
-      <c r="Q5">
-        <v>2.8</v>
-      </c>
-      <c r="R5">
+      <c r="O5" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P5" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="R5" s="10">
         <v>0.7</v>
       </c>
       <c r="S5">
@@ -1085,52 +1100,58 @@
       <c r="A6">
         <v>1003</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D6">
-        <v>220</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="10">
+        <v>440</v>
+      </c>
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
-        <v>380</v>
-      </c>
-      <c r="F6">
+        <v>600</v>
+      </c>
+      <c r="F6" s="10">
         <v>40</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="10">
         <v>0.4</v>
       </c>
-      <c r="H6">
-        <v>45</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="10">
+        <v>65</v>
+      </c>
+      <c r="I6" s="10">
         <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>45</v>
-      </c>
-      <c r="M6">
+        <v>81</v>
+      </c>
+      <c r="J6" s="10">
+        <v>4</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L6" s="10">
+        <v>30</v>
+      </c>
+      <c r="M6" s="10">
         <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="N6">
+        <v>38</v>
+      </c>
+      <c r="N6" s="10">
         <v>2</v>
       </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
-      <c r="R6">
+      <c r="O6" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P6" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>6</v>
+      </c>
+      <c r="R6" s="10">
         <v>0.5</v>
       </c>
       <c r="S6">
@@ -1156,52 +1177,58 @@
       <c r="A7">
         <v>1004</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D7">
-        <v>250</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="10">
+        <v>500</v>
+      </c>
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
-        <v>430</v>
-      </c>
-      <c r="F7">
+        <v>680</v>
+      </c>
+      <c r="F7" s="10">
         <v>45</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="10">
         <v>0.4</v>
       </c>
-      <c r="H7">
-        <v>40</v>
-      </c>
-      <c r="I7">
+      <c r="H7" s="10">
+        <v>60</v>
+      </c>
+      <c r="I7" s="10">
         <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>45</v>
-      </c>
-      <c r="M7">
+        <v>80</v>
+      </c>
+      <c r="J7" s="10">
+        <v>5</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L7" s="10">
+        <v>35</v>
+      </c>
+      <c r="M7" s="10">
         <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="N7">
+        <v>43</v>
+      </c>
+      <c r="N7" s="10">
         <v>2</v>
       </c>
-      <c r="P7">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q7">
-        <v>3.5</v>
-      </c>
-      <c r="R7">
+      <c r="O7" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>7</v>
+      </c>
+      <c r="R7" s="10">
         <v>0.65</v>
       </c>
       <c r="S7">
@@ -1227,52 +1254,58 @@
       <c r="A8">
         <v>2001</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D8">
-        <v>350</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="10">
+        <v>660</v>
+      </c>
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
-        <v>550</v>
-      </c>
-      <c r="F8">
+        <v>860</v>
+      </c>
+      <c r="F8" s="10">
         <v>50</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="10">
         <v>0.4</v>
       </c>
-      <c r="H8">
-        <v>55</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="10">
+        <v>65</v>
+      </c>
+      <c r="I8" s="10">
         <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="J8">
+        <v>93</v>
+      </c>
+      <c r="J8" s="10">
         <v>7</v>
       </c>
-      <c r="L8">
-        <v>40</v>
-      </c>
-      <c r="M8">
+      <c r="K8" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L8" s="10">
+        <v>30</v>
+      </c>
+      <c r="M8" s="10">
         <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="N8">
+        <v>46</v>
+      </c>
+      <c r="N8" s="10">
         <v>4</v>
       </c>
-      <c r="P8">
-        <v>1.8</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-      <c r="R8">
+      <c r="O8" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P8" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>4</v>
+      </c>
+      <c r="R8" s="10">
         <v>0.7</v>
       </c>
       <c r="S8">
@@ -1298,52 +1331,58 @@
       <c r="A9">
         <v>2002</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D9">
-        <v>400</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="10">
+        <v>750</v>
+      </c>
+      <c r="E9" s="10">
         <f t="shared" si="0"/>
-        <v>640</v>
-      </c>
-      <c r="F9">
+        <v>990</v>
+      </c>
+      <c r="F9" s="10">
         <v>60</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="10">
         <v>0.4</v>
       </c>
-      <c r="H9">
-        <v>60</v>
-      </c>
-      <c r="I9">
+      <c r="H9" s="10">
+        <v>70</v>
+      </c>
+      <c r="I9" s="10">
         <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="J9">
+        <v>98</v>
+      </c>
+      <c r="J9" s="10">
         <v>7</v>
       </c>
-      <c r="L9">
-        <v>45</v>
-      </c>
-      <c r="M9">
+      <c r="K9" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L9" s="10">
+        <v>35</v>
+      </c>
+      <c r="M9" s="10">
         <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="N9">
+        <v>51</v>
+      </c>
+      <c r="N9" s="10">
         <v>4</v>
       </c>
-      <c r="P9">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Q9">
-        <v>3.5</v>
-      </c>
-      <c r="R9">
+      <c r="O9" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P9" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>7</v>
+      </c>
+      <c r="R9" s="10">
         <v>0.85</v>
       </c>
       <c r="S9">
@@ -1369,52 +1408,58 @@
       <c r="A10">
         <v>2003</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D10">
-        <v>450</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="10">
+        <v>800</v>
+      </c>
+      <c r="E10" s="10">
         <f t="shared" si="0"/>
-        <v>730</v>
-      </c>
-      <c r="F10">
+        <v>1080</v>
+      </c>
+      <c r="F10" s="10">
         <v>70</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="10">
         <v>0.4</v>
       </c>
-      <c r="H10">
-        <v>55</v>
-      </c>
-      <c r="I10">
+      <c r="H10" s="10">
+        <v>65</v>
+      </c>
+      <c r="I10" s="10">
         <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="J10">
+        <v>93</v>
+      </c>
+      <c r="J10" s="10">
         <v>7</v>
       </c>
-      <c r="L10">
-        <v>45</v>
-      </c>
-      <c r="M10">
+      <c r="K10" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L10" s="10">
+        <v>35</v>
+      </c>
+      <c r="M10" s="10">
         <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="N10">
+        <v>51</v>
+      </c>
+      <c r="N10" s="10">
         <v>4</v>
       </c>
-      <c r="P10">
-        <v>2</v>
-      </c>
-      <c r="Q10">
-        <v>3.2</v>
-      </c>
-      <c r="R10">
+      <c r="O10" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P10" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="R10" s="10">
         <v>0.45</v>
       </c>
       <c r="S10">
@@ -1440,51 +1485,57 @@
       <c r="A11">
         <v>3001</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D11">
-        <v>3000</v>
-      </c>
-      <c r="E11">
-        <v>3000</v>
-      </c>
-      <c r="F11">
+      <c r="D11" s="10">
+        <v>12000</v>
+      </c>
+      <c r="E11" s="10">
+        <v>12000</v>
+      </c>
+      <c r="F11" s="10">
         <v>0</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="10">
         <v>0.4</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="10">
         <v>90</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="10">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="10">
         <v>0</v>
       </c>
-      <c r="L11">
-        <v>50</v>
-      </c>
-      <c r="M11">
+      <c r="K11" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L11" s="10">
+        <v>40</v>
+      </c>
+      <c r="M11" s="10">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="N11">
+        <v>40</v>
+      </c>
+      <c r="N11" s="10">
         <v>0</v>
       </c>
-      <c r="P11">
-        <v>2.8</v>
-      </c>
-      <c r="Q11">
-        <v>2.8</v>
-      </c>
-      <c r="R11">
+      <c r="O11" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P11" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="R11" s="10">
         <v>0.8</v>
       </c>
       <c r="S11">
@@ -1510,51 +1561,57 @@
       <c r="A12">
         <v>3002</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D12">
-        <v>4500</v>
-      </c>
-      <c r="E12">
-        <v>4500</v>
-      </c>
-      <c r="F12">
+      <c r="D12" s="10">
+        <v>15000</v>
+      </c>
+      <c r="E12" s="10">
+        <v>15000</v>
+      </c>
+      <c r="F12" s="10">
         <v>0</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="10">
         <v>0.4</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="10">
         <v>80</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="10">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="10">
         <v>0</v>
       </c>
-      <c r="L12">
+      <c r="K12" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L12" s="10">
         <v>60</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="10">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="10">
         <v>0</v>
       </c>
-      <c r="P12">
-        <v>2.5</v>
-      </c>
-      <c r="Q12">
-        <v>2.5</v>
-      </c>
-      <c r="R12">
+      <c r="O12" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P12" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>5</v>
+      </c>
+      <c r="R12" s="10">
         <v>0.6</v>
       </c>
       <c r="S12">

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0695FD-F19E-49ED-B367-B958B8E9EA02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1685B5-C0C8-40AE-9039-296E2D7205D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{DE9B2C69-80EA-4400-AF84-1E72C6D3434C}"/>
   </bookViews>
@@ -689,7 +689,7 @@
   <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:R12"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1685B5-C0C8-40AE-9039-296E2D7205D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B35F6F-B75B-4901-B248-358928FA42FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{DE9B2C69-80EA-4400-AF84-1E72C6D3434C}"/>
   </bookViews>
@@ -184,9 +184,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PJ_H II</t>
-  </si>
-  <si>
     <t>데드캅</t>
   </si>
   <si>
@@ -271,6 +268,10 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스태커</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -689,7 +690,7 @@
   <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -740,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -752,7 +753,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
@@ -764,13 +765,13 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>13</v>
@@ -788,10 +789,10 @@
         <v>17</v>
       </c>
       <c r="W1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -802,7 +803,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>18</v>
@@ -814,7 +815,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>18</v>
@@ -826,7 +827,7 @@
         <v>18</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>18</v>
@@ -838,7 +839,7 @@
         <v>18</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>20</v>
@@ -862,7 +863,7 @@
         <v>18</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>18</v>
@@ -888,7 +889,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>27</v>
@@ -900,7 +901,7 @@
         <v>29</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>30</v>
@@ -912,7 +913,7 @@
         <v>32</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>33</v>
@@ -936,10 +937,10 @@
         <v>38</v>
       </c>
       <c r="W3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
@@ -992,10 +993,10 @@
         <v>0.1</v>
       </c>
       <c r="P4" s="10">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="Q4" s="10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="R4" s="10">
         <v>0.7</v>
@@ -1024,7 +1025,7 @@
         <v>1002</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>40</v>
@@ -1069,10 +1070,10 @@
         <v>0.1</v>
       </c>
       <c r="P5" s="10">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="10">
-        <v>5.6</v>
+        <v>15</v>
       </c>
       <c r="R5" s="10">
         <v>0.7</v>
@@ -1101,7 +1102,7 @@
         <v>1003</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>40</v>
@@ -1146,10 +1147,10 @@
         <v>0.1</v>
       </c>
       <c r="P6" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q6" s="10">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="R6" s="10">
         <v>0.5</v>
@@ -1178,7 +1179,7 @@
         <v>1004</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>40</v>
@@ -1223,10 +1224,10 @@
         <v>0.1</v>
       </c>
       <c r="P7" s="10">
-        <v>4.5999999999999996</v>
+        <v>9</v>
       </c>
       <c r="Q7" s="10">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="R7" s="10">
         <v>0.65</v>
@@ -1255,10 +1256,10 @@
         <v>2001</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="D8" s="10">
         <v>660</v>
@@ -1300,10 +1301,10 @@
         <v>0.1</v>
       </c>
       <c r="P8" s="10">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="10">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="R8" s="10">
         <v>0.7</v>
@@ -1332,10 +1333,10 @@
         <v>2002</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="10">
         <v>750</v>
@@ -1377,10 +1378,10 @@
         <v>0.1</v>
       </c>
       <c r="P9" s="10">
-        <v>4.5999999999999996</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="10">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="R9" s="10">
         <v>0.85</v>
@@ -1409,10 +1410,10 @@
         <v>2003</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="10">
         <v>800</v>
@@ -1454,10 +1455,10 @@
         <v>0.1</v>
       </c>
       <c r="P10" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q10" s="10">
-        <v>6.4</v>
+        <v>18</v>
       </c>
       <c r="R10" s="10">
         <v>0.45</v>
@@ -1486,10 +1487,10 @@
         <v>3001</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="D11" s="10">
         <v>12000</v>
@@ -1530,10 +1531,10 @@
         <v>0.1</v>
       </c>
       <c r="P11" s="10">
-        <v>5.6</v>
+        <v>23</v>
       </c>
       <c r="Q11" s="10">
-        <v>5.6</v>
+        <v>23</v>
       </c>
       <c r="R11" s="10">
         <v>0.8</v>
@@ -1562,10 +1563,10 @@
         <v>3002</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="10">
         <v>15000</v>
@@ -1606,10 +1607,10 @@
         <v>0.1</v>
       </c>
       <c r="P12" s="10">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="10">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="R12" s="10">
         <v>0.6</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B35F6F-B75B-4901-B248-358928FA42FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C46460F-7739-407E-A37B-C48E7644D99D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{DE9B2C69-80EA-4400-AF84-1E72C6D3434C}"/>
   </bookViews>
@@ -689,8 +689,8 @@
   </sheetPr>
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -954,11 +954,11 @@
         <v>40</v>
       </c>
       <c r="D4" s="10">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E4" s="10">
         <f>D4+F4*4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F4" s="10">
         <v>25</v>
@@ -971,10 +971,10 @@
       </c>
       <c r="I4" s="10">
         <f>H4+J4*4</f>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J4" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" s="10">
         <v>0.25</v>
@@ -993,10 +993,10 @@
         <v>0.1</v>
       </c>
       <c r="P4" s="10">
-        <v>7</v>
+        <v>1.66</v>
       </c>
       <c r="Q4" s="10">
-        <v>15</v>
+        <v>2.48</v>
       </c>
       <c r="R4" s="10">
         <v>0.7</v>
@@ -1031,11 +1031,11 @@
         <v>40</v>
       </c>
       <c r="D5" s="10">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" ref="E5:E10" si="0">D5+F5*4</f>
-        <v>520</v>
+        <v>370</v>
       </c>
       <c r="F5" s="10">
         <v>30</v>
@@ -1048,10 +1048,10 @@
       </c>
       <c r="I5" s="10">
         <f t="shared" ref="I5:I12" si="1">H5+J5*4</f>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J5" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5" s="10">
         <v>0.25</v>
@@ -1070,10 +1070,10 @@
         <v>0.1</v>
       </c>
       <c r="P5" s="10">
-        <v>7</v>
+        <v>1.66</v>
       </c>
       <c r="Q5" s="10">
-        <v>15</v>
+        <v>2.48</v>
       </c>
       <c r="R5" s="10">
         <v>0.7</v>
@@ -1108,11 +1108,11 @@
         <v>40</v>
       </c>
       <c r="D6" s="10">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>430</v>
       </c>
       <c r="F6" s="10">
         <v>40</v>
@@ -1125,10 +1125,10 @@
       </c>
       <c r="I6" s="10">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J6" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K6" s="10">
         <v>0.25</v>
@@ -1147,10 +1147,10 @@
         <v>0.1</v>
       </c>
       <c r="P6" s="10">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="Q6" s="10">
-        <v>16</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="R6" s="10">
         <v>0.5</v>
@@ -1185,11 +1185,11 @@
         <v>40</v>
       </c>
       <c r="D7" s="10">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" si="0"/>
-        <v>680</v>
+        <v>480</v>
       </c>
       <c r="F7" s="10">
         <v>45</v>
@@ -1202,10 +1202,10 @@
       </c>
       <c r="I7" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J7" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K7" s="10">
         <v>0.25</v>
@@ -1224,10 +1224,10 @@
         <v>0.1</v>
       </c>
       <c r="P7" s="10">
-        <v>9</v>
+        <v>1.7</v>
       </c>
       <c r="Q7" s="10">
-        <v>20</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="R7" s="10">
         <v>0.65</v>
@@ -1262,11 +1262,11 @@
         <v>44</v>
       </c>
       <c r="D8" s="10">
-        <v>660</v>
+        <v>350</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" si="0"/>
-        <v>860</v>
+        <v>550</v>
       </c>
       <c r="F8" s="10">
         <v>50</v>
@@ -1279,10 +1279,10 @@
       </c>
       <c r="I8" s="10">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="J8" s="10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K8" s="10">
         <v>0.25</v>
@@ -1301,10 +1301,10 @@
         <v>0.1</v>
       </c>
       <c r="P8" s="10">
-        <v>10</v>
+        <v>1.66</v>
       </c>
       <c r="Q8" s="10">
-        <v>20</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="R8" s="10">
         <v>0.7</v>
@@ -1339,11 +1339,11 @@
         <v>44</v>
       </c>
       <c r="D9" s="10">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="0"/>
-        <v>990</v>
+        <v>640</v>
       </c>
       <c r="F9" s="10">
         <v>60</v>
@@ -1356,10 +1356,10 @@
       </c>
       <c r="I9" s="10">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J9" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K9" s="10">
         <v>0.25</v>
@@ -1378,10 +1378,10 @@
         <v>0.1</v>
       </c>
       <c r="P9" s="10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="10">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="R9" s="10">
         <v>0.85</v>
@@ -1416,11 +1416,11 @@
         <v>44</v>
       </c>
       <c r="D10" s="10">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="0"/>
-        <v>1080</v>
+        <v>730</v>
       </c>
       <c r="F10" s="10">
         <v>70</v>
@@ -1433,10 +1433,10 @@
       </c>
       <c r="I10" s="10">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="J10" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K10" s="10">
         <v>0.25</v>
@@ -1455,10 +1455,10 @@
         <v>0.1</v>
       </c>
       <c r="P10" s="10">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="Q10" s="10">
-        <v>18</v>
+        <v>2.25</v>
       </c>
       <c r="R10" s="10">
         <v>0.45</v>
@@ -1493,10 +1493,10 @@
         <v>48</v>
       </c>
       <c r="D11" s="10">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="E11" s="10">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="F11" s="10">
         <v>0</v>
@@ -1505,11 +1505,11 @@
         <v>0.4</v>
       </c>
       <c r="H11" s="10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I11" s="10">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J11" s="10">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>0.1</v>
       </c>
       <c r="P11" s="10">
-        <v>23</v>
+        <v>2.13</v>
       </c>
       <c r="Q11" s="10">
-        <v>23</v>
+        <v>3.2</v>
       </c>
       <c r="R11" s="10">
         <v>0.8</v>
@@ -1569,10 +1569,10 @@
         <v>48</v>
       </c>
       <c r="D12" s="10">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="E12" s="10">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="F12" s="10">
         <v>0</v>
@@ -1581,11 +1581,11 @@
         <v>0.4</v>
       </c>
       <c r="H12" s="10">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I12" s="10">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J12" s="10">
         <v>0</v>
@@ -1607,10 +1607,10 @@
         <v>0.1</v>
       </c>
       <c r="P12" s="10">
-        <v>21</v>
+        <v>2.1</v>
       </c>
       <c r="Q12" s="10">
-        <v>21</v>
+        <v>3.15</v>
       </c>
       <c r="R12" s="10">
         <v>0.6</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C46460F-7739-407E-A37B-C48E7644D99D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB8E4A0-C160-4B85-887C-C8A6EDA10677}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{DE9B2C69-80EA-4400-AF84-1E72C6D3434C}"/>
   </bookViews>
@@ -212,9 +212,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>데드 포트리스</t>
-  </si>
-  <si>
     <t>Enum&lt;MonsterType&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -272,6 +269,10 @@
   </si>
   <si>
     <t>스태커</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이탄</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -689,8 +690,8 @@
   </sheetPr>
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -741,7 +742,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -753,7 +754,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
@@ -765,13 +766,13 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>13</v>
@@ -789,10 +790,10 @@
         <v>17</v>
       </c>
       <c r="W1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -803,7 +804,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>18</v>
@@ -815,7 +816,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>18</v>
@@ -827,7 +828,7 @@
         <v>18</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>18</v>
@@ -839,7 +840,7 @@
         <v>18</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>20</v>
@@ -863,7 +864,7 @@
         <v>18</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>18</v>
@@ -889,7 +890,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>27</v>
@@ -901,7 +902,7 @@
         <v>29</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>30</v>
@@ -913,7 +914,7 @@
         <v>32</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>33</v>
@@ -937,10 +938,10 @@
         <v>38</v>
       </c>
       <c r="W3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
@@ -1025,7 +1026,7 @@
         <v>1002</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>40</v>
@@ -1493,10 +1494,10 @@
         <v>48</v>
       </c>
       <c r="D11" s="10">
-        <v>9000</v>
+        <v>90000</v>
       </c>
       <c r="E11" s="10">
-        <v>9000</v>
+        <v>90000</v>
       </c>
       <c r="F11" s="10">
         <v>0</v>
@@ -1563,16 +1564,16 @@
         <v>3002</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="10">
-        <v>12000</v>
+        <v>120000</v>
       </c>
       <c r="E12" s="10">
-        <v>12000</v>
+        <v>120000</v>
       </c>
       <c r="F12" s="10">
         <v>0</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB8E4A0-C160-4B85-887C-C8A6EDA10677}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE77753D-8946-4667-B2A1-CF03FFC7BBD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{DE9B2C69-80EA-4400-AF84-1E72C6D3434C}"/>
   </bookViews>
@@ -691,7 +691,7 @@
   <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -981,11 +981,11 @@
         <v>0.25</v>
       </c>
       <c r="L4" s="10">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M4" s="10">
         <f>L4+N4*4</f>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N4" s="10">
         <v>2</v>
@@ -1058,11 +1058,11 @@
         <v>0.25</v>
       </c>
       <c r="L5" s="10">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ref="M5:M12" si="2">L5+N5*4</f>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N5" s="10">
         <v>2</v>
@@ -1135,11 +1135,11 @@
         <v>0.25</v>
       </c>
       <c r="L6" s="10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M6" s="10">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N6" s="10">
         <v>2</v>
@@ -1212,11 +1212,11 @@
         <v>0.25</v>
       </c>
       <c r="L7" s="10">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M7" s="10">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N7" s="10">
         <v>2</v>
@@ -1289,11 +1289,11 @@
         <v>0.25</v>
       </c>
       <c r="L8" s="10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M8" s="10">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N8" s="10">
         <v>4</v>
@@ -1366,11 +1366,11 @@
         <v>0.25</v>
       </c>
       <c r="L9" s="10">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M9" s="10">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N9" s="10">
         <v>4</v>
@@ -1443,11 +1443,11 @@
         <v>0.25</v>
       </c>
       <c r="L10" s="10">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M10" s="10">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N10" s="10">
         <v>4</v>
@@ -1494,10 +1494,10 @@
         <v>48</v>
       </c>
       <c r="D11" s="10">
-        <v>90000</v>
+        <v>9000</v>
       </c>
       <c r="E11" s="10">
-        <v>90000</v>
+        <v>9000</v>
       </c>
       <c r="F11" s="10">
         <v>0</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE77753D-8946-4667-B2A1-CF03FFC7BBD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B539AB-53E9-4ACF-9853-9ECD0D4B5F80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{DE9B2C69-80EA-4400-AF84-1E72C6D3434C}"/>
   </bookViews>
@@ -691,7 +691,7 @@
   <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -981,11 +981,11 @@
         <v>0.25</v>
       </c>
       <c r="L4" s="10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M4" s="10">
         <f>L4+N4*4</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N4" s="10">
         <v>2</v>
@@ -1058,11 +1058,11 @@
         <v>0.25</v>
       </c>
       <c r="L5" s="10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ref="M5:M12" si="2">L5+N5*4</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N5" s="10">
         <v>2</v>
@@ -1135,11 +1135,11 @@
         <v>0.25</v>
       </c>
       <c r="L6" s="10">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M6" s="10">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N6" s="10">
         <v>2</v>
@@ -1212,11 +1212,11 @@
         <v>0.25</v>
       </c>
       <c r="L7" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M7" s="10">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="N7" s="10">
         <v>2</v>
@@ -1289,11 +1289,11 @@
         <v>0.25</v>
       </c>
       <c r="L8" s="10">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M8" s="10">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N8" s="10">
         <v>4</v>
@@ -1366,11 +1366,11 @@
         <v>0.25</v>
       </c>
       <c r="L9" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M9" s="10">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N9" s="10">
         <v>4</v>
@@ -1443,11 +1443,11 @@
         <v>0.25</v>
       </c>
       <c r="L10" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M10" s="10">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N10" s="10">
         <v>4</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B539AB-53E9-4ACF-9853-9ECD0D4B5F80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDD50D8-3D96-49FD-9484-7F434A2EE238}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{DE9B2C69-80EA-4400-AF84-1E72C6D3434C}"/>
   </bookViews>
@@ -691,7 +691,7 @@
   <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1494,10 +1494,10 @@
         <v>48</v>
       </c>
       <c r="D11" s="10">
-        <v>9000</v>
+        <v>45000</v>
       </c>
       <c r="E11" s="10">
-        <v>9000</v>
+        <v>45000</v>
       </c>
       <c r="F11" s="10">
         <v>0</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDD50D8-3D96-49FD-9484-7F434A2EE238}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD299D51-1BCD-4B9E-A11F-7E8711799184}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{DE9B2C69-80EA-4400-AF84-1E72C6D3434C}"/>
   </bookViews>
@@ -690,8 +690,8 @@
   </sheetPr>
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -997,7 +997,7 @@
         <v>1.66</v>
       </c>
       <c r="Q4" s="10">
-        <v>2.48</v>
+        <v>4.5</v>
       </c>
       <c r="R4" s="10">
         <v>0.7</v>
@@ -1074,7 +1074,7 @@
         <v>1.66</v>
       </c>
       <c r="Q5" s="10">
-        <v>2.48</v>
+        <v>4.5</v>
       </c>
       <c r="R5" s="10">
         <v>0.7</v>
@@ -1151,7 +1151,7 @@
         <v>1.7</v>
       </c>
       <c r="Q6" s="10">
-        <v>2.4900000000000002</v>
+        <v>4.7</v>
       </c>
       <c r="R6" s="10">
         <v>0.5</v>
@@ -1228,7 +1228,7 @@
         <v>1.7</v>
       </c>
       <c r="Q7" s="10">
-        <v>2.5499999999999998</v>
+        <v>4.8</v>
       </c>
       <c r="R7" s="10">
         <v>0.65</v>
@@ -1305,7 +1305,7 @@
         <v>1.66</v>
       </c>
       <c r="Q8" s="10">
-        <v>2.4900000000000002</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="R8" s="10">
         <v>0.7</v>
@@ -1382,7 +1382,7 @@
         <v>2</v>
       </c>
       <c r="Q9" s="10">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="R9" s="10">
         <v>0.85</v>
@@ -1459,7 +1459,7 @@
         <v>1.5</v>
       </c>
       <c r="Q10" s="10">
-        <v>2.25</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="R10" s="10">
         <v>0.45</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD299D51-1BCD-4B9E-A11F-7E8711799184}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5AF556-F30D-4E0F-B4C9-4900CDCB856B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{DE9B2C69-80EA-4400-AF84-1E72C6D3434C}"/>
   </bookViews>
@@ -691,7 +691,7 @@
   <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -997,7 +997,7 @@
         <v>1.66</v>
       </c>
       <c r="Q4" s="10">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R4" s="10">
         <v>0.7</v>
@@ -1074,7 +1074,7 @@
         <v>1.66</v>
       </c>
       <c r="Q5" s="10">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R5" s="10">
         <v>0.7</v>
@@ -1151,7 +1151,7 @@
         <v>1.7</v>
       </c>
       <c r="Q6" s="10">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="R6" s="10">
         <v>0.5</v>
@@ -1228,7 +1228,7 @@
         <v>1.7</v>
       </c>
       <c r="Q7" s="10">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="R7" s="10">
         <v>0.65</v>
@@ -1305,7 +1305,7 @@
         <v>1.66</v>
       </c>
       <c r="Q8" s="10">
-        <v>4.5999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="R8" s="10">
         <v>0.7</v>
@@ -1382,7 +1382,7 @@
         <v>2</v>
       </c>
       <c r="Q9" s="10">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="R9" s="10">
         <v>0.85</v>
@@ -1459,7 +1459,7 @@
         <v>1.5</v>
       </c>
       <c r="Q10" s="10">
-        <v>4.4000000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="R10" s="10">
         <v>0.45</v>
@@ -1535,7 +1535,7 @@
         <v>2.13</v>
       </c>
       <c r="Q11" s="10">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="R11" s="10">
         <v>0.8</v>
@@ -1611,7 +1611,7 @@
         <v>2.1</v>
       </c>
       <c r="Q12" s="10">
-        <v>3.15</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="R12" s="10">
         <v>0.6</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5AF556-F30D-4E0F-B4C9-4900CDCB856B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1D5B37-BB9B-4154-911D-57D6E5D97839}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{DE9B2C69-80EA-4400-AF84-1E72C6D3434C}"/>
   </bookViews>
@@ -336,7 +336,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -368,6 +368,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -690,8 +693,8 @@
   </sheetPr>
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -994,10 +997,10 @@
         <v>0.1</v>
       </c>
       <c r="P4" s="10">
-        <v>1.66</v>
-      </c>
-      <c r="Q4" s="10">
         <v>5</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>11</v>
       </c>
       <c r="R4" s="10">
         <v>0.7</v>
@@ -1071,10 +1074,10 @@
         <v>0.1</v>
       </c>
       <c r="P5" s="10">
-        <v>1.66</v>
-      </c>
-      <c r="Q5" s="10">
         <v>5</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>12</v>
       </c>
       <c r="R5" s="10">
         <v>0.7</v>
@@ -1148,10 +1151,10 @@
         <v>0.1</v>
       </c>
       <c r="P6" s="10">
-        <v>1.7</v>
-      </c>
-      <c r="Q6" s="10">
         <v>5.2</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>12</v>
       </c>
       <c r="R6" s="10">
         <v>0.5</v>
@@ -1225,10 +1228,10 @@
         <v>0.1</v>
       </c>
       <c r="P7" s="10">
-        <v>1.7</v>
-      </c>
-      <c r="Q7" s="10">
         <v>5.3</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>13</v>
       </c>
       <c r="R7" s="10">
         <v>0.65</v>
@@ -1302,10 +1305,10 @@
         <v>0.1</v>
       </c>
       <c r="P8" s="10">
-        <v>1.66</v>
-      </c>
-      <c r="Q8" s="10">
         <v>5.0999999999999996</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>12</v>
       </c>
       <c r="R8" s="10">
         <v>0.7</v>
@@ -1379,10 +1382,10 @@
         <v>0.1</v>
       </c>
       <c r="P9" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="10">
         <v>6</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>15</v>
       </c>
       <c r="R9" s="10">
         <v>0.85</v>
@@ -1456,10 +1459,10 @@
         <v>0.1</v>
       </c>
       <c r="P10" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="Q10" s="10">
         <v>4.9000000000000004</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>13</v>
       </c>
       <c r="R10" s="10">
         <v>0.45</v>
@@ -1532,10 +1535,10 @@
         <v>0.1</v>
       </c>
       <c r="P11" s="10">
-        <v>2.13</v>
-      </c>
-      <c r="Q11" s="10">
         <v>5</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>15</v>
       </c>
       <c r="R11" s="10">
         <v>0.8</v>
@@ -1608,10 +1611,10 @@
         <v>0.1</v>
       </c>
       <c r="P12" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="Q12" s="10">
         <v>4.8499999999999996</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>14</v>
       </c>
       <c r="R12" s="10">
         <v>0.6</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1D5B37-BB9B-4154-911D-57D6E5D97839}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3498BF6E-D182-452C-B37A-940DC230A8BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{DE9B2C69-80EA-4400-AF84-1E72C6D3434C}"/>
   </bookViews>
@@ -693,8 +693,8 @@
   </sheetPr>
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -997,7 +997,7 @@
         <v>0.1</v>
       </c>
       <c r="P4" s="10">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="Q4" s="11">
         <v>11</v>
@@ -1074,7 +1074,7 @@
         <v>0.1</v>
       </c>
       <c r="P5" s="10">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="Q5" s="11">
         <v>12</v>
@@ -1151,7 +1151,7 @@
         <v>0.1</v>
       </c>
       <c r="P6" s="10">
-        <v>5.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q6" s="11">
         <v>12</v>
@@ -1228,7 +1228,7 @@
         <v>0.1</v>
       </c>
       <c r="P7" s="10">
-        <v>5.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q7" s="11">
         <v>13</v>
@@ -1305,7 +1305,7 @@
         <v>0.1</v>
       </c>
       <c r="P8" s="10">
-        <v>5.0999999999999996</v>
+        <v>1.5</v>
       </c>
       <c r="Q8" s="11">
         <v>12</v>
@@ -1382,7 +1382,7 @@
         <v>0.1</v>
       </c>
       <c r="P9" s="10">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="Q9" s="11">
         <v>15</v>
@@ -1459,7 +1459,7 @@
         <v>0.1</v>
       </c>
       <c r="P10" s="10">
-        <v>4.9000000000000004</v>
+        <v>1.5</v>
       </c>
       <c r="Q10" s="11">
         <v>13</v>

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/MonsterInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3498BF6E-D182-452C-B37A-940DC230A8BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C933FD9-53F3-4CE2-999D-48402E76E577}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19245" windowHeight="8700" xr2:uid="{DE9B2C69-80EA-4400-AF84-1E72C6D3434C}"/>
   </bookViews>
@@ -693,8 +693,8 @@
   </sheetPr>
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1317,7 +1317,7 @@
         <v>4</v>
       </c>
       <c r="T8">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="U8" s="5">
         <v>200</v>
